--- a/Results/Categorization/dp-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-fasttext-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1860">
   <si>
     <t>id</t>
   </si>
@@ -4030,64 +4030,76 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|PRICES</t>
@@ -4105,382 +4117,430 @@
     <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD||AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE||SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES||</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES||PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES||</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>|place</t>
   </si>
   <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
   </si>
   <si>
     <t>service|perfection</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
   </si>
   <si>
     <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
   </si>
   <si>
+    <t>bit|service</t>
+  </si>
+  <si>
     <t>taste|mouth|service</t>
   </si>
   <si>
-    <t>self-respect</t>
+    <t>waiter|bit|self-respect</t>
   </si>
   <si>
     <t>notch|service</t>
   </si>
   <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
   </si>
   <si>
     <t>advanatage|half|price|sushi|deal</t>
   </si>
   <si>
-    <t>food|impecable</t>
+    <t>|food|impecable</t>
   </si>
   <si>
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4489,10 +4549,13 @@
     <t>service|varys</t>
   </si>
   <si>
+    <t>|food</t>
+  </si>
+  <si>
     <t>ambience|lunch|conversation</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|food|price|beginning</t>
@@ -4501,13 +4564,13 @@
     <t>dessert|lava|cake</t>
   </si>
   <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
   </si>
   <si>
     <t>pizza|cheese</t>
@@ -4531,10 +4594,10 @@
     <t>shrimp|wife</t>
   </si>
   <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
   </si>
   <si>
     <t>wife|staff</t>
@@ -4546,13 +4609,13 @@
     <t>service|decor|food|portions</t>
   </si>
   <si>
-    <t>point</t>
+    <t>hostess|point</t>
   </si>
   <si>
     <t>oily|food</t>
   </si>
   <si>
-    <t>food|wine|times|place|service</t>
+    <t>food|wine|place|service</t>
   </si>
   <si>
     <t>wait|trouble</t>
@@ -4561,19 +4624,34 @@
     <t>glass|wine</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>lunch|reviews</t>
   </si>
   <si>
-    <t>sauce|flavor|food</t>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
   </si>
   <si>
     <t>pizza|service</t>
   </si>
   <si>
-    <t>sushi|hands</t>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
   </si>
   <si>
     <t>food|place</t>
@@ -4585,13 +4663,13 @@
     <t>variety|menu</t>
   </si>
   <si>
-    <t>dumplings|section</t>
+    <t>|dumplings|lot|section</t>
   </si>
   <si>
     <t>sashimi|rolls</t>
   </si>
   <si>
-    <t>tuna</t>
+    <t>|tuna</t>
   </si>
   <si>
     <t>terrace|garden</t>
@@ -4600,7 +4678,7 @@
     <t>food|service</t>
   </si>
   <si>
-    <t>tartare|steak</t>
+    <t>bet|tartare|steak</t>
   </si>
   <si>
     <t>restaurant|kitchen|part</t>
@@ -4609,10 +4687,10 @@
     <t>selection|wine|value|price|champagne|house</t>
   </si>
   <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
   </si>
   <si>
     <t>neighborhood|food</t>
@@ -4621,22 +4699,22 @@
     <t>setting|service|occasion</t>
   </si>
   <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
-  </si>
-  <si>
-    <t>dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>specials</t>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
   </si>
   <si>
     <t>lounge</t>
@@ -4648,7 +4726,7 @@
     <t>beers|wines</t>
   </si>
   <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
   </si>
   <si>
     <t>service|food</t>
@@ -4660,37 +4738,40 @@
     <t>potatoes|tuna|wasabe</t>
   </si>
   <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
     <t>pizza|mozzarella|cheese|pizzaria</t>
   </si>
   <si>
     <t>selection|appetizer|complaints</t>
   </si>
   <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
   </si>
   <si>
     <t>quality|dining|restaurant</t>
   </si>
   <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
   </si>
   <si>
     <t>food|options|rule</t>
   </si>
   <si>
-    <t>roll|heaven</t>
+    <t>|roll|heaven</t>
   </si>
   <si>
     <t>sake|menu</t>
   </si>
   <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
   </si>
   <si>
     <t>selection|wine|list</t>
@@ -4702,7 +4783,10 @@
     <t>decor|boths|side|side|hall</t>
   </si>
   <si>
-    <t>band|atmosphere|jazz</t>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
   </si>
   <si>
     <t>food|diamond|balance|herbs|tomatoes|homemade</t>
@@ -4714,34 +4798,40 @@
     <t>husband|tortelini|beers|food|dish</t>
   </si>
   <si>
+    <t>|bagel</t>
+  </si>
+  <si>
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
   </si>
   <si>
     <t>dumplings|pancakes</t>
   </si>
   <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
   </si>
   <si>
     <t>price|service</t>
@@ -4750,96 +4840,105 @@
     <t>restaurant|food|course</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food|$18!-</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
+  </si>
+  <si>
+    <t>price|$3-6!-</t>
+  </si>
+  <si>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food|$18</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>price|$3-6</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines|$70+</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
     <t>place|staff|wait</t>
   </si>
   <si>
@@ -4852,7 +4951,7 @@
     <t>tuna|tartar|appetizer</t>
   </si>
   <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
   </si>
   <si>
     <t>place|service</t>
@@ -4873,15 +4972,24 @@
     <t>service|staff</t>
   </si>
   <si>
-    <t>service|place|occassion</t>
+    <t>service|place|date|occassion</t>
   </si>
   <si>
     <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
   </si>
   <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
@@ -4894,76 +5002,82 @@
     <t>ambience|service</t>
   </si>
   <si>
-    <t>nothing|atmosphere|establishment</t>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
   </si>
   <si>
     <t>prices|quality</t>
   </si>
   <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
   </si>
   <si>
     <t>place|food</t>
   </si>
   <si>
+    <t>|dishes</t>
+  </si>
+  <si>
     <t>decor|service</t>
   </si>
   <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
+    <t>svc|group|bit|esp</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|anything|chips|side|$7)</t>
+    <t>sandwiches|chips|side|$7!-</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
   </si>
   <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
   </si>
   <si>
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>sandwich|price|$24</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
+    <t>lobster|sandwich|price|$24!-</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
   </si>
   <si>
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10.</t>
-  </si>
-  <si>
-    <t>list|wine</t>
+    <t>plate|cheese|bargain|delight|$10!-</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
   </si>
   <si>
     <t>atmosphere|hesititate</t>
@@ -4972,34 +5086,31 @@
     <t>food|deal|place|self</t>
   </si>
   <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
   </si>
   <si>
     <t>staff|cafe|wish|place</t>
   </si>
   <si>
-    <t>ambience|prices|food|fact</t>
+    <t>ambience|prices|fun|food|top|fact</t>
   </si>
   <si>
     <t>experience|customer|service|restaurant</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
   </si>
   <si>
     <t>weather|table|snag</t>
@@ -5008,16 +5119,22 @@
     <t>staff|bathroom</t>
   </si>
   <si>
-    <t>patrons|closing</t>
+    <t>|patrons|closing</t>
   </si>
   <si>
     <t>staff|company|meal</t>
   </si>
   <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
     <t>area|garden|herb</t>
   </si>
   <si>
-    <t>place|points|money.</t>
+    <t>place|points</t>
   </si>
   <si>
     <t>crowd</t>
@@ -5026,13 +5143,13 @@
     <t>price|pizzas</t>
   </si>
   <si>
-    <t>money|guys|outta|money</t>
+    <t>waiter|money|guys|outta</t>
   </si>
   <si>
     <t>staff|wait</t>
   </si>
   <si>
-    <t>sandwiches</t>
+    <t>|sandwiches</t>
   </si>
   <si>
     <t>room|clerks|style|substance|folks</t>
@@ -5041,19 +5158,16 @@
     <t>lawns</t>
   </si>
   <si>
-    <t>anything|service</t>
-  </si>
-  <si>
     <t>place|prices</t>
   </si>
   <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt|100 dollar!-</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
   </si>
   <si>
     <t>crew|staff|staff</t>
@@ -5062,34 +5176,37 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
   </si>
   <si>
     <t>feature|terrace</t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
   </si>
   <si>
     <t>service|atmosphere</t>
   </si>
   <si>
-    <t>decor|prices|place</t>
+    <t>decor|prices|place|city</t>
   </si>
   <si>
     <t>management</t>
@@ -5116,10 +5233,7 @@
     <t>measures|liquers|quibbles|bill</t>
   </si>
   <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>|restaurant|nyc|gimmick|theme</t>
   </si>
   <si>
     <t>atomosphere|tables</t>
@@ -5131,16 +5245,16 @@
     <t>ceiling|room|dining</t>
   </si>
   <si>
-    <t>place|expectations|money.</t>
+    <t>place|expectations</t>
   </si>
   <si>
     <t>food|wines|selecion|prices</t>
   </si>
   <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
   </si>
   <si>
     <t>design|atmosphere</t>
@@ -5149,7 +5263,7 @@
     <t>bottles|wine</t>
   </si>
   <si>
-    <t>opera|everything|jukebox|strokes</t>
+    <t>|opera|jukebox|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5164,13 +5278,16 @@
     <t>indoor</t>
   </si>
   <si>
+    <t>|decor</t>
+  </si>
+  <si>
     <t>food|prices</t>
   </si>
   <si>
     <t>food|tasting|prices|prices</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>music|food|prices|prices|service</t>
@@ -5182,7 +5299,7 @@
     <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
   </si>
   <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
   </si>
   <si>
     <t>side|service|food</t>
@@ -5194,13 +5311,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20</t>
+    <t>sushi|$20!-</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15....</t>
+    <t>fish|chips|$15!-</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5209,25 +5326,34 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
+    <t>meal|$60!-</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet|$400.00!-</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>guacamole|plate|$11!-</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
   </si>
   <si>
     <t>food|price|people|people</t>
@@ -5236,13 +5362,16 @@
     <t>booths|eachother|couple</t>
   </si>
   <si>
-    <t>prices|view</t>
+    <t>|prices|view</t>
   </si>
   <si>
     <t>bathroom|mens</t>
   </si>
   <si>
-    <t>price|prestige</t>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
   </si>
   <si>
     <t>restaurant|food</t>
@@ -5257,64 +5386,61 @@
     <t>place|value</t>
   </si>
   <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish|$10!-</t>
   </si>
   <si>
     <t>martinis</t>
   </si>
   <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
   </si>
   <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>diners|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>dinner|$55</t>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|service|$500!-</t>
+  </si>
+  <si>
+    <t>|diners</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>dinner|$55!-</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
-  </si>
-  <si>
-    <t>money|money.</t>
+    <t>|bill|portion</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25),</t>
-  </si>
-  <si>
-    <t>something|food|$</t>
+    <t>restaurant|feel|price|place|$25!-</t>
+  </si>
+  <si>
+    <t>food|$!-</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5323,25 +5449,28 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>brasserie|opinion|restaurants</t>
-  </si>
-  <si>
-    <t>deal|party|$29</t>
-  </si>
-  <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>service|$500</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
-  </si>
-  <si>
-    <t>bite|salmon|restaurants|salmon|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
+  </si>
+  <si>
+    <t>deal|party|$29!-</t>
+  </si>
+  <si>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
+  </si>
+  <si>
+    <t>bite|salmon|restaurants|salmon|$24!-</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5350,13 +5479,13 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5871,10 +6000,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1089</v>
+        <v>1484</v>
       </c>
       <c r="H2" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5897,10 +6026,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="H3" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5920,13 +6049,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1466</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5949,10 +6078,10 @@
         <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1467</v>
+        <v>1486</v>
       </c>
       <c r="H5" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5972,13 +6101,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1468</v>
+        <v>1487</v>
       </c>
       <c r="H6" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5998,13 +6127,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="H7" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6024,13 +6153,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1470</v>
+        <v>1489</v>
       </c>
       <c r="H8" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6053,10 +6182,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1471</v>
+        <v>1490</v>
       </c>
       <c r="H9" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6076,13 +6205,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1472</v>
+        <v>1491</v>
       </c>
       <c r="H10" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6105,10 +6234,10 @@
         <v>1285</v>
       </c>
       <c r="G11" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
       <c r="H11" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6128,13 +6257,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1474</v>
+        <v>1493</v>
       </c>
       <c r="H12" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6154,13 +6283,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="H13" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6180,13 +6309,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1476</v>
+        <v>1495</v>
       </c>
       <c r="H14" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6206,13 +6335,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1294</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1477</v>
+        <v>1496</v>
       </c>
       <c r="H15" t="s">
-        <v>1788</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6232,13 +6361,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G16" t="s">
-        <v>1478</v>
+        <v>1497</v>
       </c>
       <c r="H16" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6261,10 +6390,10 @@
         <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="H17" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6284,13 +6413,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>947</v>
+        <v>1499</v>
       </c>
       <c r="H18" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6310,7 +6439,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6336,7 +6465,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6362,7 +6491,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6382,13 +6511,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G22" t="s">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="H22" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6407,11 +6536,14 @@
       <c r="E23" t="s">
         <v>1276</v>
       </c>
+      <c r="F23" t="s">
+        <v>1348</v>
+      </c>
       <c r="G23" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="H23" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6437,7 +6569,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6457,13 +6589,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G25" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="H25" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6483,13 +6615,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G26" t="s">
-        <v>1483</v>
+        <v>1503</v>
       </c>
       <c r="H26" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6515,7 +6647,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6535,13 +6667,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1484</v>
+        <v>1504</v>
       </c>
       <c r="H28" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6561,13 +6693,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1485</v>
+        <v>1505</v>
       </c>
       <c r="H29" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6587,13 +6719,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1486</v>
+        <v>1506</v>
       </c>
       <c r="H30" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6613,13 +6745,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1487</v>
+        <v>1507</v>
       </c>
       <c r="H31" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6639,13 +6771,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G32" t="s">
-        <v>1488</v>
+        <v>1508</v>
       </c>
       <c r="H32" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6671,7 +6803,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6697,7 +6829,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6717,13 +6849,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G35" t="s">
-        <v>1489</v>
+        <v>1509</v>
       </c>
       <c r="H35" t="s">
-        <v>1790</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6743,13 +6875,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G36" t="s">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="H36" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6775,7 +6907,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6798,10 +6930,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>933</v>
+        <v>1511</v>
       </c>
       <c r="H38" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6821,13 +6953,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G39" t="s">
-        <v>1491</v>
+        <v>1512</v>
       </c>
       <c r="H39" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6847,13 +6979,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="G40" t="s">
-        <v>1492</v>
+        <v>1513</v>
       </c>
       <c r="H40" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6873,13 +7005,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G41" t="s">
-        <v>1493</v>
+        <v>1514</v>
       </c>
       <c r="H41" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6899,13 +7031,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G42" t="s">
-        <v>1494</v>
+        <v>1515</v>
       </c>
       <c r="H42" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6925,13 +7057,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1495</v>
+        <v>1516</v>
       </c>
       <c r="H43" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6957,7 +7089,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6977,13 +7109,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G45" t="s">
-        <v>1496</v>
+        <v>1517</v>
       </c>
       <c r="H45" t="s">
-        <v>1791</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7003,13 +7135,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="G46" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="H46" t="s">
-        <v>1792</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7032,10 +7164,10 @@
         <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="H47" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7061,7 +7193,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7084,10 +7216,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1499</v>
+        <v>1520</v>
       </c>
       <c r="H49" t="s">
-        <v>1793</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7107,13 +7239,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G50" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="H50" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7133,13 +7265,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G51" t="s">
-        <v>1501</v>
+        <v>1522</v>
       </c>
       <c r="H51" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7159,13 +7291,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="G52" t="s">
-        <v>1502</v>
+        <v>1523</v>
       </c>
       <c r="H52" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7185,13 +7317,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G53" t="s">
-        <v>1503</v>
+        <v>1524</v>
       </c>
       <c r="H53" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7214,10 +7346,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H54" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7237,13 +7369,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G55" t="s">
-        <v>1505</v>
+        <v>1526</v>
       </c>
       <c r="H55" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7263,13 +7395,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G56" t="s">
-        <v>1506</v>
+        <v>1527</v>
       </c>
       <c r="H56" t="s">
-        <v>1795</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7289,13 +7421,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G57" t="s">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="H57" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7315,13 +7447,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G58" t="s">
-        <v>1508</v>
+        <v>1529</v>
       </c>
       <c r="H58" t="s">
-        <v>1796</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7341,13 +7473,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G59" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
       <c r="H59" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7367,13 +7499,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1285</v>
+        <v>1355</v>
       </c>
       <c r="G60" t="s">
-        <v>1510</v>
+        <v>1531</v>
       </c>
       <c r="H60" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7396,10 +7528,10 @@
         <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1511</v>
+        <v>1532</v>
       </c>
       <c r="H61" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7419,13 +7551,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G62" t="s">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="H62" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7445,13 +7577,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G63" t="s">
-        <v>1513</v>
+        <v>1534</v>
       </c>
       <c r="H63" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7474,10 +7606,10 @@
         <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1514</v>
+        <v>1535</v>
       </c>
       <c r="H64" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7503,7 +7635,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7529,7 +7661,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7552,10 +7684,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>1536</v>
       </c>
       <c r="H67" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7575,13 +7707,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G68" t="s">
-        <v>989</v>
+        <v>1537</v>
       </c>
       <c r="H68" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7601,13 +7733,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1515</v>
+        <v>1538</v>
       </c>
       <c r="H69" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7627,13 +7759,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G70" t="s">
-        <v>1516</v>
+        <v>1539</v>
       </c>
       <c r="H70" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7653,13 +7785,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G71" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="H71" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7679,13 +7811,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1341</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1541</v>
       </c>
       <c r="H72" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7711,7 +7843,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7731,13 +7863,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G74" t="s">
-        <v>1518</v>
+        <v>1542</v>
       </c>
       <c r="H74" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7760,10 +7892,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>985</v>
+        <v>1543</v>
       </c>
       <c r="H75" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7783,13 +7915,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1544</v>
       </c>
       <c r="H76" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7809,13 +7941,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1350</v>
+        <v>1372</v>
       </c>
       <c r="G77" t="s">
-        <v>1519</v>
+        <v>1545</v>
       </c>
       <c r="H77" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7835,13 +7967,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G78" t="s">
-        <v>1520</v>
+        <v>1546</v>
       </c>
       <c r="H78" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7864,10 +7996,10 @@
         <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1521</v>
+        <v>1547</v>
       </c>
       <c r="H79" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7893,7 +8025,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7916,10 +8048,10 @@
         <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1522</v>
+        <v>1548</v>
       </c>
       <c r="H81" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7945,7 +8077,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1796</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7971,7 +8103,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7991,13 +8123,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1338</v>
+        <v>1373</v>
       </c>
       <c r="G84" t="s">
-        <v>1523</v>
+        <v>1549</v>
       </c>
       <c r="H84" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8020,10 +8152,10 @@
         <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1524</v>
+        <v>1550</v>
       </c>
       <c r="H85" t="s">
-        <v>1798</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8046,10 +8178,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1525</v>
+        <v>1551</v>
       </c>
       <c r="H86" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8072,10 +8204,10 @@
         <v>1337</v>
       </c>
       <c r="G87" t="s">
-        <v>1526</v>
+        <v>1552</v>
       </c>
       <c r="H87" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8095,13 +8227,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G88" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="H88" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8121,13 +8253,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G89" t="s">
-        <v>1528</v>
+        <v>1554</v>
       </c>
       <c r="H89" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8147,13 +8279,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="G90" t="s">
-        <v>1529</v>
+        <v>1555</v>
       </c>
       <c r="H90" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8173,13 +8305,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
       <c r="G91" t="s">
-        <v>1530</v>
+        <v>1556</v>
       </c>
       <c r="H91" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8199,13 +8331,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="G92" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
       <c r="H92" t="s">
-        <v>1799</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8225,13 +8357,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
       <c r="G93" t="s">
-        <v>1532</v>
+        <v>1558</v>
       </c>
       <c r="H93" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8251,13 +8383,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G94" t="s">
-        <v>1533</v>
+        <v>1559</v>
       </c>
       <c r="H94" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8277,13 +8409,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="G95" t="s">
-        <v>1534</v>
+        <v>1560</v>
       </c>
       <c r="H95" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8306,10 +8438,10 @@
         <v>1337</v>
       </c>
       <c r="G96" t="s">
-        <v>1535</v>
+        <v>1561</v>
       </c>
       <c r="H96" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8329,13 +8461,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G97" t="s">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="H97" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8355,13 +8487,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="G98" t="s">
-        <v>1537</v>
+        <v>1563</v>
       </c>
       <c r="H98" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8381,13 +8513,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G99" t="s">
-        <v>1538</v>
+        <v>1564</v>
       </c>
       <c r="H99" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8410,10 +8542,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1539</v>
+        <v>1565</v>
       </c>
       <c r="H100" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8433,13 +8565,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1380</v>
       </c>
       <c r="G101" t="s">
-        <v>1540</v>
+        <v>1566</v>
       </c>
       <c r="H101" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8462,10 +8594,10 @@
         <v>1276</v>
       </c>
       <c r="G102" t="s">
-        <v>1541</v>
+        <v>1567</v>
       </c>
       <c r="H102" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8491,7 +8623,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8511,13 +8643,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="G104" t="s">
-        <v>1542</v>
+        <v>1568</v>
       </c>
       <c r="H104" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8543,7 +8675,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8566,10 +8698,10 @@
         <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1543</v>
+        <v>1569</v>
       </c>
       <c r="H106" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8589,13 +8721,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="G107" t="s">
-        <v>1544</v>
+        <v>1570</v>
       </c>
       <c r="H107" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8615,13 +8747,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="G108" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
       <c r="H108" t="s">
-        <v>1800</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8644,10 +8776,10 @@
         <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="H109" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8673,7 +8805,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8699,7 +8831,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8719,13 +8851,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="G112" t="s">
-        <v>1547</v>
+        <v>1573</v>
       </c>
       <c r="H112" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8745,13 +8877,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>1574</v>
       </c>
       <c r="H113" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8777,7 +8909,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8797,13 +8929,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G115" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
       <c r="H115" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8823,13 +8955,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="G116" t="s">
-        <v>1548</v>
+        <v>1575</v>
       </c>
       <c r="H116" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8849,13 +8981,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="G117" t="s">
-        <v>1549</v>
+        <v>1576</v>
       </c>
       <c r="H117" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8875,13 +9007,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="G118" t="s">
-        <v>1550</v>
+        <v>1577</v>
       </c>
       <c r="H118" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8901,13 +9033,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G119" t="s">
-        <v>1551</v>
+        <v>1578</v>
       </c>
       <c r="H119" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8927,13 +9059,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="G120" t="s">
-        <v>1552</v>
+        <v>1579</v>
       </c>
       <c r="H120" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8953,13 +9085,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
       <c r="G121" t="s">
-        <v>1553</v>
+        <v>1580</v>
       </c>
       <c r="H121" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8985,7 +9117,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9005,13 +9137,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="G123" t="s">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="H123" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9037,7 +9169,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9060,10 +9192,10 @@
         <v>1337</v>
       </c>
       <c r="G125" t="s">
-        <v>1555</v>
+        <v>1582</v>
       </c>
       <c r="H125" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9086,10 +9218,10 @@
         <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1556</v>
+        <v>1583</v>
       </c>
       <c r="H126" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9112,10 +9244,10 @@
         <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1557</v>
+        <v>1584</v>
       </c>
       <c r="H127" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9141,7 +9273,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9161,13 +9293,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1352</v>
+        <v>1390</v>
       </c>
       <c r="G129" t="s">
-        <v>1558</v>
+        <v>1585</v>
       </c>
       <c r="H129" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9187,13 +9319,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="G130" t="s">
-        <v>1559</v>
+        <v>1586</v>
       </c>
       <c r="H130" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9213,13 +9345,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="G131" t="s">
-        <v>1560</v>
+        <v>1587</v>
       </c>
       <c r="H131" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9245,7 +9377,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9271,7 +9403,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9291,13 +9423,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="G134" t="s">
-        <v>1561</v>
+        <v>1588</v>
       </c>
       <c r="H134" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9317,13 +9449,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1383</v>
+        <v>1393</v>
       </c>
       <c r="G135" t="s">
-        <v>1562</v>
+        <v>1589</v>
       </c>
       <c r="H135" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9343,13 +9475,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G136" t="s">
-        <v>1046</v>
+        <v>1590</v>
       </c>
       <c r="H136" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9369,13 +9501,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1384</v>
+        <v>1394</v>
       </c>
       <c r="G137" t="s">
-        <v>1563</v>
+        <v>1591</v>
       </c>
       <c r="H137" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9401,7 +9533,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9421,13 +9553,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="G139" t="s">
-        <v>1564</v>
+        <v>1592</v>
       </c>
       <c r="H139" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9447,13 +9579,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="G140" t="s">
-        <v>1565</v>
+        <v>1593</v>
       </c>
       <c r="H140" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9476,10 +9608,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1050</v>
+        <v>1594</v>
       </c>
       <c r="H141" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9499,13 +9631,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="G142" t="s">
-        <v>1566</v>
+        <v>1595</v>
       </c>
       <c r="H142" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9525,13 +9657,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1388</v>
+        <v>1398</v>
       </c>
       <c r="G143" t="s">
-        <v>1567</v>
+        <v>1596</v>
       </c>
       <c r="H143" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9551,13 +9683,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1341</v>
+        <v>1399</v>
       </c>
       <c r="G144" t="s">
-        <v>1568</v>
+        <v>1597</v>
       </c>
       <c r="H144" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9577,13 +9709,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1389</v>
+        <v>1400</v>
       </c>
       <c r="G145" t="s">
-        <v>1569</v>
+        <v>1598</v>
       </c>
       <c r="H145" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9603,13 +9735,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1390</v>
+        <v>1401</v>
       </c>
       <c r="G146" t="s">
-        <v>1570</v>
+        <v>1599</v>
       </c>
       <c r="H146" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9632,10 +9764,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>931</v>
+        <v>1600</v>
       </c>
       <c r="H147" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9655,13 +9787,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1341</v>
+        <v>1399</v>
       </c>
       <c r="G148" t="s">
-        <v>1571</v>
+        <v>1601</v>
       </c>
       <c r="H148" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9684,10 +9816,10 @@
         <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1572</v>
+        <v>1602</v>
       </c>
       <c r="H149" t="s">
-        <v>1801</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9707,13 +9839,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1391</v>
+        <v>1402</v>
       </c>
       <c r="G150" t="s">
-        <v>1573</v>
+        <v>1603</v>
       </c>
       <c r="H150" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9733,13 +9865,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1392</v>
+        <v>1403</v>
       </c>
       <c r="G151" t="s">
-        <v>1574</v>
+        <v>1604</v>
       </c>
       <c r="H151" t="s">
-        <v>1802</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9759,13 +9891,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G152" t="s">
-        <v>1575</v>
+        <v>1605</v>
       </c>
       <c r="H152" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9785,13 +9917,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="G153" t="s">
-        <v>1576</v>
+        <v>1606</v>
       </c>
       <c r="H153" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9811,13 +9943,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="G154" t="s">
-        <v>1577</v>
+        <v>1607</v>
       </c>
       <c r="H154" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9837,13 +9969,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G155" t="s">
-        <v>1578</v>
+        <v>1608</v>
       </c>
       <c r="H155" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9869,7 +10001,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9889,13 +10021,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1278</v>
+        <v>1405</v>
       </c>
       <c r="G157" t="s">
-        <v>1579</v>
+        <v>1609</v>
       </c>
       <c r="H157" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9915,13 +10047,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="G158" t="s">
-        <v>1580</v>
+        <v>1610</v>
       </c>
       <c r="H158" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9947,7 +10079,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9973,7 +10105,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9999,7 +10131,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10025,7 +10157,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10048,10 +10180,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>976</v>
+        <v>1611</v>
       </c>
       <c r="H163" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10077,7 +10209,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10097,13 +10229,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G165" t="s">
-        <v>1581</v>
+        <v>1612</v>
       </c>
       <c r="H165" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10126,10 +10258,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1582</v>
+        <v>1613</v>
       </c>
       <c r="H166" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10149,13 +10281,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="G167" t="s">
-        <v>1583</v>
+        <v>1614</v>
       </c>
       <c r="H167" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10175,13 +10307,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1584</v>
+        <v>1615</v>
       </c>
       <c r="H168" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10207,7 +10339,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10227,13 +10359,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1366</v>
+        <v>1408</v>
       </c>
       <c r="G170" t="s">
-        <v>1585</v>
+        <v>1616</v>
       </c>
       <c r="H170" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10253,13 +10385,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G171" t="s">
-        <v>1586</v>
+        <v>1617</v>
       </c>
       <c r="H171" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10279,13 +10411,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1587</v>
+        <v>1618</v>
       </c>
       <c r="H172" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10308,10 +10440,10 @@
         <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1588</v>
+        <v>1619</v>
       </c>
       <c r="H173" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10331,13 +10463,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G174" t="s">
-        <v>1589</v>
+        <v>1620</v>
       </c>
       <c r="H174" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10357,13 +10489,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G175" t="s">
-        <v>1520</v>
+        <v>1546</v>
       </c>
       <c r="H175" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10383,13 +10515,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="G176" t="s">
-        <v>1473</v>
+        <v>1621</v>
       </c>
       <c r="H176" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10409,13 +10541,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G177" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="H177" t="s">
-        <v>1792</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10435,13 +10567,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G178" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="H178" t="s">
-        <v>1803</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10461,13 +10593,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
       <c r="G179" t="s">
-        <v>1590</v>
+        <v>1622</v>
       </c>
       <c r="H179" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10487,13 +10619,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G180" t="s">
-        <v>1591</v>
+        <v>1623</v>
       </c>
       <c r="H180" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10513,13 +10645,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
       <c r="G181" t="s">
-        <v>1592</v>
+        <v>1624</v>
       </c>
       <c r="H181" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10539,13 +10671,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
       <c r="G182" t="s">
-        <v>1593</v>
+        <v>1625</v>
       </c>
       <c r="H182" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10571,7 +10703,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10594,10 +10726,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1594</v>
+        <v>1626</v>
       </c>
       <c r="H184" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10617,13 +10749,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G185" t="s">
-        <v>1595</v>
+        <v>1627</v>
       </c>
       <c r="H185" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10649,7 +10781,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10675,7 +10807,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10701,7 +10833,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10727,7 +10859,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10753,7 +10885,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10773,13 +10905,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G191" t="s">
-        <v>1596</v>
+        <v>1628</v>
       </c>
       <c r="H191" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10799,13 +10931,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G192" t="s">
-        <v>1597</v>
+        <v>1629</v>
       </c>
       <c r="H192" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10825,13 +10957,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G193" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="H193" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10854,10 +10986,10 @@
         <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1598</v>
+        <v>1630</v>
       </c>
       <c r="H194" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10883,7 +11015,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10909,7 +11041,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10935,7 +11067,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10955,7 +11087,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10975,13 +11107,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="G199" t="s">
-        <v>1599</v>
+        <v>1631</v>
       </c>
       <c r="H199" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11007,7 +11139,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11027,13 +11159,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G201" t="s">
-        <v>1600</v>
+        <v>1632</v>
       </c>
       <c r="H201" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11053,13 +11185,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="G202" t="s">
-        <v>1601</v>
+        <v>1633</v>
       </c>
       <c r="H202" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11085,7 +11217,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11105,13 +11237,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G204" t="s">
-        <v>1602</v>
+        <v>1634</v>
       </c>
       <c r="H204" t="s">
-        <v>1800</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11131,13 +11263,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1352</v>
+        <v>1389</v>
       </c>
       <c r="G205" t="s">
-        <v>1603</v>
+        <v>1635</v>
       </c>
       <c r="H205" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11157,13 +11289,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1403</v>
+        <v>1413</v>
       </c>
       <c r="G206" t="s">
-        <v>1604</v>
+        <v>1636</v>
       </c>
       <c r="H206" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11183,13 +11315,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G207" t="s">
-        <v>1605</v>
+        <v>1637</v>
       </c>
       <c r="H207" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11209,13 +11341,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G208" t="s">
-        <v>1606</v>
+        <v>1638</v>
       </c>
       <c r="H208" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11235,13 +11367,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G209" t="s">
-        <v>1607</v>
+        <v>1639</v>
       </c>
       <c r="H209" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11264,10 +11396,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1579</v>
+        <v>1640</v>
       </c>
       <c r="H210" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11287,13 +11419,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
       <c r="G211" t="s">
-        <v>1608</v>
+        <v>1641</v>
       </c>
       <c r="H211" t="s">
-        <v>1804</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11313,13 +11445,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G212" t="s">
-        <v>1609</v>
+        <v>1642</v>
       </c>
       <c r="H212" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11345,7 +11477,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11365,13 +11497,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1390</v>
+        <v>1415</v>
       </c>
       <c r="G214" t="s">
-        <v>1610</v>
+        <v>1643</v>
       </c>
       <c r="H214" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11391,13 +11523,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="G215" t="s">
-        <v>1611</v>
+        <v>1644</v>
       </c>
       <c r="H215" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11417,13 +11549,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="G216" t="s">
-        <v>1612</v>
+        <v>1645</v>
       </c>
       <c r="H216" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11443,13 +11575,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1613</v>
+        <v>1646</v>
       </c>
       <c r="H217" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11469,13 +11601,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="G218" t="s">
-        <v>1614</v>
+        <v>1647</v>
       </c>
       <c r="H218" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11495,13 +11627,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="G219" t="s">
-        <v>1615</v>
+        <v>1648</v>
       </c>
       <c r="H219" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11521,13 +11653,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
       <c r="G220" t="s">
-        <v>1616</v>
+        <v>1649</v>
       </c>
       <c r="H220" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11547,13 +11679,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="G221" t="s">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="H221" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11573,13 +11705,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G222" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="H222" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11599,13 +11731,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="G223" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="H223" t="s">
-        <v>1805</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11625,13 +11757,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="G224" t="s">
-        <v>1620</v>
+        <v>1653</v>
       </c>
       <c r="H224" t="s">
-        <v>1806</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11657,7 +11789,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11680,10 +11812,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>1600</v>
       </c>
       <c r="H226" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11703,13 +11835,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1285</v>
+        <v>1421</v>
       </c>
       <c r="G227" t="s">
-        <v>1089</v>
+        <v>1654</v>
       </c>
       <c r="H227" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11732,10 +11864,10 @@
         <v>1294</v>
       </c>
       <c r="G228" t="s">
-        <v>1621</v>
+        <v>1655</v>
       </c>
       <c r="H228" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11761,7 +11893,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11781,13 +11913,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G230" t="s">
-        <v>1539</v>
+        <v>1656</v>
       </c>
       <c r="H230" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11810,10 +11942,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>947</v>
+        <v>1657</v>
       </c>
       <c r="H231" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11836,10 +11968,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1622</v>
+        <v>1658</v>
       </c>
       <c r="H232" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11859,13 +11991,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G233" t="s">
-        <v>1623</v>
+        <v>1659</v>
       </c>
       <c r="H233" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11885,13 +12017,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="G234" t="s">
-        <v>1624</v>
+        <v>1660</v>
       </c>
       <c r="H234" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11911,13 +12043,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G235" t="s">
-        <v>1625</v>
+        <v>1661</v>
       </c>
       <c r="H235" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11937,13 +12069,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1409</v>
+        <v>1346</v>
       </c>
       <c r="G236" t="s">
-        <v>1626</v>
+        <v>1662</v>
       </c>
       <c r="H236" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11963,13 +12095,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1276</v>
+        <v>1404</v>
       </c>
       <c r="G237" t="s">
-        <v>931</v>
+        <v>1663</v>
       </c>
       <c r="H237" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11989,13 +12121,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1366</v>
+        <v>1408</v>
       </c>
       <c r="G238" t="s">
-        <v>1627</v>
+        <v>1664</v>
       </c>
       <c r="H238" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12015,13 +12147,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1276</v>
+        <v>1402</v>
       </c>
       <c r="G239" t="s">
-        <v>1628</v>
+        <v>1665</v>
       </c>
       <c r="H239" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12041,13 +12173,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="G240" t="s">
-        <v>1629</v>
+        <v>1666</v>
       </c>
       <c r="H240" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12067,13 +12199,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G241" t="s">
-        <v>1630</v>
+        <v>1667</v>
       </c>
       <c r="H241" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12093,13 +12225,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="G242" t="s">
-        <v>1631</v>
+        <v>1668</v>
       </c>
       <c r="H242" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12125,7 +12257,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12151,7 +12283,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12177,7 +12309,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12203,7 +12335,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12222,8 +12354,14 @@
       <c r="E247" t="s">
         <v>1310</v>
       </c>
+      <c r="F247" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1669</v>
+      </c>
       <c r="H247" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12243,13 +12381,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1351</v>
+        <v>1424</v>
       </c>
       <c r="G248" t="s">
-        <v>1632</v>
+        <v>1670</v>
       </c>
       <c r="H248" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12269,13 +12407,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G249" t="s">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="H249" t="s">
-        <v>1788</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12298,10 +12436,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>959</v>
+        <v>1672</v>
       </c>
       <c r="H250" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12321,13 +12459,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G251" t="s">
-        <v>1634</v>
+        <v>1673</v>
       </c>
       <c r="H251" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12350,7 +12488,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12370,13 +12508,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G253" t="s">
-        <v>1635</v>
+        <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12402,7 +12540,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12422,13 +12560,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
       <c r="G255" t="s">
-        <v>1636</v>
+        <v>1674</v>
       </c>
       <c r="H255" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12451,10 +12589,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1637</v>
+        <v>1675</v>
       </c>
       <c r="H256" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12477,10 +12615,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="H257" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12500,13 +12638,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
       <c r="G258" t="s">
-        <v>1638</v>
+        <v>1676</v>
       </c>
       <c r="H258" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12526,13 +12664,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
       <c r="G259" t="s">
-        <v>1639</v>
+        <v>1677</v>
       </c>
       <c r="H259" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12555,10 +12693,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1637</v>
+        <v>1675</v>
       </c>
       <c r="H260" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12584,7 +12722,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12610,7 +12748,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12630,13 +12768,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1350</v>
+        <v>1428</v>
       </c>
       <c r="G263" t="s">
-        <v>1640</v>
+        <v>1678</v>
       </c>
       <c r="H263" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12662,7 +12800,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12682,13 +12820,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="G265" t="s">
-        <v>1641</v>
+        <v>1679</v>
       </c>
       <c r="H265" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12708,13 +12846,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="G266" t="s">
-        <v>1642</v>
+        <v>1680</v>
       </c>
       <c r="H266" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12734,13 +12872,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G267" t="s">
-        <v>1643</v>
+        <v>1681</v>
       </c>
       <c r="H267" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12760,13 +12898,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1380</v>
+        <v>1431</v>
       </c>
       <c r="G268" t="s">
-        <v>1644</v>
+        <v>1682</v>
       </c>
       <c r="H268" t="s">
-        <v>1793</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12786,13 +12924,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="G269" t="s">
-        <v>1645</v>
+        <v>1683</v>
       </c>
       <c r="H269" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12812,13 +12950,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1380</v>
       </c>
       <c r="G270" t="s">
-        <v>1646</v>
+        <v>1684</v>
       </c>
       <c r="H270" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12838,13 +12976,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G271" t="s">
-        <v>1647</v>
+        <v>1685</v>
       </c>
       <c r="H271" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12864,13 +13002,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1418</v>
+        <v>1433</v>
       </c>
       <c r="G272" t="s">
-        <v>1648</v>
+        <v>1686</v>
       </c>
       <c r="H272" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12890,13 +13028,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G273" t="s">
-        <v>1649</v>
+        <v>1687</v>
       </c>
       <c r="H273" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12916,13 +13054,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1419</v>
+        <v>1434</v>
       </c>
       <c r="G274" t="s">
-        <v>1650</v>
+        <v>1688</v>
       </c>
       <c r="H274" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12942,13 +13080,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="G275" t="s">
-        <v>1651</v>
+        <v>1689</v>
       </c>
       <c r="H275" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12971,10 +13109,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1652</v>
+        <v>1690</v>
       </c>
       <c r="H276" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12994,13 +13132,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G277" t="s">
-        <v>1653</v>
+        <v>1691</v>
       </c>
       <c r="H277" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13020,13 +13158,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
       <c r="G278" t="s">
-        <v>1654</v>
+        <v>1627</v>
       </c>
       <c r="H278" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13045,8 +13183,14 @@
       <c r="E279" t="s">
         <v>1276</v>
       </c>
+      <c r="F279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1022</v>
+      </c>
       <c r="H279" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13066,13 +13210,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1341</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1655</v>
+        <v>1692</v>
       </c>
       <c r="H280" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13091,11 +13235,14 @@
       <c r="E281" t="s">
         <v>1276</v>
       </c>
+      <c r="F281" t="s">
+        <v>1436</v>
+      </c>
       <c r="G281" t="s">
-        <v>1656</v>
+        <v>1693</v>
       </c>
       <c r="H281" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13115,13 +13262,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1422</v>
+        <v>1437</v>
       </c>
       <c r="G282" t="s">
-        <v>1657</v>
+        <v>1694</v>
       </c>
       <c r="H282" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13147,7 +13294,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13167,13 +13314,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1423</v>
+        <v>1438</v>
       </c>
       <c r="G284" t="s">
-        <v>1658</v>
+        <v>1695</v>
       </c>
       <c r="H284" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13193,13 +13340,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1424</v>
+        <v>1439</v>
       </c>
       <c r="G285" t="s">
-        <v>1659</v>
+        <v>1696</v>
       </c>
       <c r="H285" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13219,13 +13366,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1425</v>
+        <v>1440</v>
       </c>
       <c r="G286" t="s">
-        <v>1660</v>
+        <v>1697</v>
       </c>
       <c r="H286" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13251,7 +13398,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13271,13 +13418,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="G288" t="s">
-        <v>1661</v>
+        <v>1698</v>
       </c>
       <c r="H288" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13297,13 +13444,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G289" t="s">
-        <v>1662</v>
+        <v>1699</v>
       </c>
       <c r="H289" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13323,13 +13470,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G290" t="s">
-        <v>1663</v>
+        <v>1700</v>
       </c>
       <c r="H290" t="s">
-        <v>1793</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13349,13 +13496,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G291" t="s">
-        <v>1664</v>
+        <v>1701</v>
       </c>
       <c r="H291" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13375,13 +13522,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="G292" t="s">
-        <v>1665</v>
+        <v>1702</v>
       </c>
       <c r="H292" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13404,10 +13551,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1199</v>
+        <v>1703</v>
       </c>
       <c r="H293" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13433,7 +13580,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13453,13 +13600,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1276</v>
+        <v>1355</v>
       </c>
       <c r="G295" t="s">
-        <v>947</v>
+        <v>1704</v>
       </c>
       <c r="H295" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13485,7 +13632,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13505,13 +13652,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G297" t="s">
-        <v>1666</v>
+        <v>1705</v>
       </c>
       <c r="H297" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13531,13 +13678,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1429</v>
+        <v>1406</v>
       </c>
       <c r="G298" t="s">
-        <v>1667</v>
+        <v>1706</v>
       </c>
       <c r="H298" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13563,7 +13710,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13582,8 +13729,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13606,10 +13759,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1668</v>
+        <v>1707</v>
       </c>
       <c r="H301" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13629,13 +13782,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G302" t="s">
-        <v>1669</v>
+        <v>1708</v>
       </c>
       <c r="H302" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13655,13 +13808,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
       <c r="G303" t="s">
-        <v>1670</v>
+        <v>1709</v>
       </c>
       <c r="H303" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13687,7 +13840,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13713,7 +13866,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13733,13 +13886,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G306" t="s">
-        <v>1671</v>
+        <v>1710</v>
       </c>
       <c r="H306" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13765,7 +13918,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13788,10 +13941,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1672</v>
+        <v>1711</v>
       </c>
       <c r="H308" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13811,13 +13964,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
       <c r="G309" t="s">
-        <v>1673</v>
+        <v>1712</v>
       </c>
       <c r="H309" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13843,7 +13996,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13866,10 +14019,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1674</v>
+        <v>1713</v>
       </c>
       <c r="H311" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13895,7 +14048,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13915,13 +14068,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1675</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13947,7 +14100,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13967,13 +14120,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="G315" t="s">
-        <v>1676</v>
+        <v>1714</v>
       </c>
       <c r="H315" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13993,13 +14146,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
       <c r="G316" t="s">
-        <v>1677</v>
+        <v>1715</v>
       </c>
       <c r="H316" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14025,7 +14178,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14051,7 +14204,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14070,8 +14223,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14097,7 +14256,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14117,13 +14276,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1401</v>
+        <v>1445</v>
       </c>
       <c r="G321" t="s">
-        <v>1678</v>
+        <v>1716</v>
       </c>
       <c r="H321" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14143,13 +14302,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G322" t="s">
-        <v>1679</v>
+        <v>1717</v>
       </c>
       <c r="H322" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14169,13 +14328,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="G323" t="s">
-        <v>1680</v>
+        <v>1718</v>
       </c>
       <c r="H323" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14195,13 +14354,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G324" t="s">
-        <v>1681</v>
+        <v>1719</v>
       </c>
       <c r="H324" t="s">
-        <v>1792</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14227,7 +14386,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14253,7 +14412,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14273,13 +14432,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="G327" t="s">
-        <v>1682</v>
+        <v>1720</v>
       </c>
       <c r="H327" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14299,13 +14458,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1401</v>
+        <v>1448</v>
       </c>
       <c r="G328" t="s">
-        <v>1683</v>
+        <v>1721</v>
       </c>
       <c r="H328" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14325,13 +14484,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1434</v>
+        <v>1449</v>
       </c>
       <c r="G329" t="s">
-        <v>1684</v>
+        <v>1722</v>
       </c>
       <c r="H329" t="s">
-        <v>1807</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14351,13 +14510,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1435</v>
+        <v>1450</v>
       </c>
       <c r="G330" t="s">
-        <v>1685</v>
+        <v>1723</v>
       </c>
       <c r="H330" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14377,13 +14536,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1394</v>
+        <v>1445</v>
       </c>
       <c r="G331" t="s">
-        <v>1686</v>
+        <v>1724</v>
       </c>
       <c r="H331" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14403,13 +14562,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G332" t="s">
-        <v>1687</v>
+        <v>1725</v>
       </c>
       <c r="H332" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14432,10 +14591,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>931</v>
+        <v>1600</v>
       </c>
       <c r="H333" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14458,10 +14617,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1180</v>
+        <v>1726</v>
       </c>
       <c r="H334" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14481,13 +14640,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1278</v>
+        <v>1353</v>
       </c>
       <c r="G335" t="s">
-        <v>1688</v>
+        <v>1727</v>
       </c>
       <c r="H335" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14507,13 +14666,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1436</v>
+        <v>1451</v>
       </c>
       <c r="G336" t="s">
-        <v>1689</v>
+        <v>1728</v>
       </c>
       <c r="H336" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14533,13 +14692,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G337" t="s">
-        <v>1690</v>
+        <v>1729</v>
       </c>
       <c r="H337" t="s">
-        <v>1792</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14559,13 +14718,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1437</v>
+        <v>1452</v>
       </c>
       <c r="G338" t="s">
-        <v>1691</v>
+        <v>1730</v>
       </c>
       <c r="H338" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14591,7 +14750,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14614,10 +14773,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1692</v>
+        <v>1731</v>
       </c>
       <c r="H340" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14637,13 +14796,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1366</v>
+        <v>1408</v>
       </c>
       <c r="G341" t="s">
-        <v>1693</v>
+        <v>1732</v>
       </c>
       <c r="H341" t="s">
-        <v>1808</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14669,7 +14828,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14689,13 +14848,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="G343" t="s">
-        <v>1694</v>
+        <v>1733</v>
       </c>
       <c r="H343" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14715,13 +14874,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1438</v>
+        <v>1453</v>
       </c>
       <c r="G344" t="s">
-        <v>1695</v>
+        <v>1734</v>
       </c>
       <c r="H344" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14741,13 +14900,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1412</v>
+        <v>1454</v>
       </c>
       <c r="G345" t="s">
-        <v>1696</v>
+        <v>1735</v>
       </c>
       <c r="H345" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14773,7 +14932,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14793,13 +14952,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="G347" t="s">
-        <v>1697</v>
+        <v>1736</v>
       </c>
       <c r="H347" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14818,8 +14977,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14845,7 +15010,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14865,13 +15030,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1439</v>
+        <v>1455</v>
       </c>
       <c r="G350" t="s">
-        <v>1698</v>
+        <v>1737</v>
       </c>
       <c r="H350" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14891,13 +15056,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G351" t="s">
-        <v>1649</v>
+        <v>1687</v>
       </c>
       <c r="H351" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14917,13 +15082,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1440</v>
+        <v>1456</v>
       </c>
       <c r="G352" t="s">
-        <v>1699</v>
+        <v>1738</v>
       </c>
       <c r="H352" t="s">
-        <v>1796</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14943,13 +15108,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1441</v>
+        <v>1457</v>
       </c>
       <c r="G353" t="s">
-        <v>1700</v>
+        <v>1739</v>
       </c>
       <c r="H353" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14968,14 +15133,8 @@
       <c r="E354" t="s">
         <v>1276</v>
       </c>
-      <c r="F354" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1701</v>
-      </c>
       <c r="H354" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14995,13 +15154,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G355" t="s">
-        <v>1702</v>
+        <v>1740</v>
       </c>
       <c r="H355" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15027,7 +15186,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15047,13 +15206,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1442</v>
+        <v>1373</v>
       </c>
       <c r="G357" t="s">
-        <v>1703</v>
+        <v>1741</v>
       </c>
       <c r="H357" t="s">
-        <v>1809</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15076,10 +15235,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>947</v>
+        <v>1657</v>
       </c>
       <c r="H358" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15099,13 +15258,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1409</v>
+        <v>1458</v>
       </c>
       <c r="G359" t="s">
-        <v>1704</v>
+        <v>1742</v>
       </c>
       <c r="H359" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15128,10 +15287,10 @@
         <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1199</v>
+        <v>1703</v>
       </c>
       <c r="H360" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15151,13 +15310,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1429</v>
+        <v>1406</v>
       </c>
       <c r="G361" t="s">
-        <v>1705</v>
+        <v>1743</v>
       </c>
       <c r="H361" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15183,7 +15342,7 @@
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15203,13 +15362,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1443</v>
+        <v>1459</v>
       </c>
       <c r="G363" t="s">
-        <v>1706</v>
+        <v>1744</v>
       </c>
       <c r="H363" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15229,13 +15388,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G364" t="s">
-        <v>1707</v>
+        <v>1745</v>
       </c>
       <c r="H364" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15255,13 +15414,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G365" t="s">
-        <v>1708</v>
+        <v>1746</v>
       </c>
       <c r="H365" t="s">
-        <v>1810</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15287,7 +15446,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15313,7 +15472,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15333,13 +15492,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G368" t="s">
-        <v>1709</v>
+        <v>1747</v>
       </c>
       <c r="H368" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15362,10 +15521,10 @@
         <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1710</v>
+        <v>1748</v>
       </c>
       <c r="H369" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15385,13 +15544,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1444</v>
+        <v>1421</v>
       </c>
       <c r="G370" t="s">
-        <v>1711</v>
+        <v>1749</v>
       </c>
       <c r="H370" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15411,13 +15570,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G371" t="s">
-        <v>1712</v>
+        <v>1750</v>
       </c>
       <c r="H371" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15437,13 +15596,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G372" t="s">
-        <v>1713</v>
+        <v>1751</v>
       </c>
       <c r="H372" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15463,13 +15622,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G373" t="s">
-        <v>1714</v>
+        <v>1752</v>
       </c>
       <c r="H373" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15492,10 +15651,10 @@
         <v>1278</v>
       </c>
       <c r="G374" t="s">
-        <v>1715</v>
+        <v>1753</v>
       </c>
       <c r="H374" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15518,10 +15677,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1211</v>
+        <v>1754</v>
       </c>
       <c r="H375" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15541,13 +15700,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G376" t="s">
-        <v>1716</v>
+        <v>1755</v>
       </c>
       <c r="H376" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15567,13 +15726,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="G377" t="s">
-        <v>1717</v>
+        <v>1756</v>
       </c>
       <c r="H377" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15593,13 +15752,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1338</v>
+        <v>1395</v>
       </c>
       <c r="G378" t="s">
-        <v>1718</v>
+        <v>1757</v>
       </c>
       <c r="H378" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15619,13 +15778,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="G379" t="s">
-        <v>1719</v>
+        <v>1758</v>
       </c>
       <c r="H379" t="s">
-        <v>1794</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15651,7 +15810,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15671,13 +15830,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
       <c r="G381" t="s">
-        <v>1720</v>
+        <v>1759</v>
       </c>
       <c r="H381" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15697,13 +15856,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="G382" t="s">
-        <v>1721</v>
+        <v>1760</v>
       </c>
       <c r="H382" t="s">
-        <v>1811</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15723,13 +15882,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="G383" t="s">
-        <v>1722</v>
+        <v>1761</v>
       </c>
       <c r="H383" t="s">
-        <v>1802</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15749,13 +15908,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="G384" t="s">
-        <v>1723</v>
+        <v>1762</v>
       </c>
       <c r="H384" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15775,13 +15934,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G385" t="s">
-        <v>1724</v>
+        <v>1763</v>
       </c>
       <c r="H385" t="s">
-        <v>1801</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15801,13 +15960,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="G386" t="s">
-        <v>1725</v>
+        <v>1764</v>
       </c>
       <c r="H386" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15827,13 +15986,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G387" t="s">
-        <v>1726</v>
+        <v>1765</v>
       </c>
       <c r="H387" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15853,13 +16012,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="G388" t="s">
-        <v>1727</v>
+        <v>1766</v>
       </c>
       <c r="H388" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15885,7 +16044,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15905,13 +16064,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G390" t="s">
-        <v>1728</v>
+        <v>1767</v>
       </c>
       <c r="H390" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15931,13 +16090,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G391" t="s">
-        <v>1729</v>
+        <v>1768</v>
       </c>
       <c r="H391" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15957,13 +16116,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="G392" t="s">
-        <v>1730</v>
+        <v>1769</v>
       </c>
       <c r="H392" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15983,13 +16142,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G393" t="s">
-        <v>1731</v>
+        <v>1770</v>
       </c>
       <c r="H393" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16009,13 +16168,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G394" t="s">
-        <v>1089</v>
+        <v>1771</v>
       </c>
       <c r="H394" t="s">
-        <v>1796</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16041,7 +16200,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16061,13 +16220,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1401</v>
+        <v>1285</v>
       </c>
       <c r="G396" t="s">
-        <v>1732</v>
+        <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16087,13 +16246,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G397" t="s">
-        <v>1716</v>
+        <v>1755</v>
       </c>
       <c r="H397" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16113,13 +16272,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1419</v>
+        <v>1468</v>
       </c>
       <c r="G398" t="s">
-        <v>1733</v>
+        <v>1772</v>
       </c>
       <c r="H398" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16145,7 +16304,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16165,13 +16324,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G400" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="H400" t="s">
-        <v>1812</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16194,10 +16353,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1227</v>
+        <v>1773</v>
       </c>
       <c r="H401" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16217,13 +16376,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1454</v>
+        <v>1469</v>
       </c>
       <c r="G402" t="s">
-        <v>1734</v>
+        <v>1774</v>
       </c>
       <c r="H402" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16243,13 +16402,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G403" t="s">
-        <v>1735</v>
+        <v>1775</v>
       </c>
       <c r="H403" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16269,13 +16428,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G404" t="s">
-        <v>1736</v>
+        <v>1776</v>
       </c>
       <c r="H404" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16295,13 +16454,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G405" t="s">
-        <v>1520</v>
+        <v>1546</v>
       </c>
       <c r="H405" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16327,7 +16486,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16347,13 +16506,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1455</v>
+        <v>1470</v>
       </c>
       <c r="G407" t="s">
-        <v>1737</v>
+        <v>1777</v>
       </c>
       <c r="H407" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16373,13 +16532,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1376</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1778</v>
       </c>
       <c r="H408" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16402,10 +16561,10 @@
         <v>1276</v>
       </c>
       <c r="G409" t="s">
-        <v>968</v>
+        <v>1779</v>
       </c>
       <c r="H409" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16431,7 +16590,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16451,13 +16610,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1438</v>
+        <v>1453</v>
       </c>
       <c r="G411" t="s">
-        <v>1738</v>
+        <v>1780</v>
       </c>
       <c r="H411" t="s">
-        <v>1799</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16477,13 +16636,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="G412" t="s">
-        <v>1739</v>
+        <v>1781</v>
       </c>
       <c r="H412" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16503,13 +16662,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1412</v>
+        <v>1454</v>
       </c>
       <c r="G413" t="s">
-        <v>1740</v>
+        <v>1782</v>
       </c>
       <c r="H413" t="s">
-        <v>1798</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16529,13 +16688,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G414" t="s">
-        <v>1741</v>
+        <v>1783</v>
       </c>
       <c r="H414" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16555,13 +16714,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1366</v>
+        <v>1472</v>
       </c>
       <c r="G415" t="s">
-        <v>1742</v>
+        <v>1784</v>
       </c>
       <c r="H415" t="s">
-        <v>1813</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16587,7 +16746,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16610,10 +16769,10 @@
         <v>1276</v>
       </c>
       <c r="G417" t="s">
-        <v>1241</v>
+        <v>1785</v>
       </c>
       <c r="H417" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16633,13 +16792,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G418" t="s">
-        <v>1743</v>
+        <v>1786</v>
       </c>
       <c r="H418" t="s">
-        <v>1800</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16659,13 +16818,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="G419" t="s">
-        <v>1744</v>
+        <v>1787</v>
       </c>
       <c r="H419" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16685,13 +16844,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G420" t="s">
-        <v>1745</v>
+        <v>1788</v>
       </c>
       <c r="H420" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16711,13 +16870,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="G421" t="s">
-        <v>1746</v>
+        <v>1789</v>
       </c>
       <c r="H421" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16740,10 +16899,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>933</v>
+        <v>1511</v>
       </c>
       <c r="H422" t="s">
-        <v>1787</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16769,7 +16928,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16795,7 +16954,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16815,13 +16974,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1394</v>
+        <v>1445</v>
       </c>
       <c r="G425" t="s">
-        <v>1747</v>
+        <v>1790</v>
       </c>
       <c r="H425" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16841,13 +17000,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1457</v>
+        <v>1473</v>
       </c>
       <c r="G426" t="s">
-        <v>1748</v>
+        <v>1791</v>
       </c>
       <c r="H426" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16866,14 +17025,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1419</v>
-      </c>
       <c r="G427" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="H427" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16896,10 +17052,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1750</v>
+        <v>1792</v>
       </c>
       <c r="H428" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16919,13 +17075,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1458</v>
+        <v>1399</v>
       </c>
       <c r="G429" t="s">
-        <v>1751</v>
+        <v>1793</v>
       </c>
       <c r="H429" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16945,13 +17101,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G430" t="s">
-        <v>1752</v>
+        <v>1794</v>
       </c>
       <c r="H430" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16971,13 +17127,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G431" t="s">
-        <v>1753</v>
+        <v>1795</v>
       </c>
       <c r="H431" t="s">
-        <v>1814</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16997,13 +17153,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1419</v>
+        <v>1474</v>
       </c>
       <c r="G432" t="s">
-        <v>1754</v>
+        <v>1796</v>
       </c>
       <c r="H432" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17029,7 +17185,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17049,13 +17205,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G434" t="s">
-        <v>1755</v>
+        <v>1797</v>
       </c>
       <c r="H434" t="s">
-        <v>1810</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17075,13 +17231,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1459</v>
+        <v>1475</v>
       </c>
       <c r="G435" t="s">
-        <v>1756</v>
+        <v>1798</v>
       </c>
       <c r="H435" t="s">
-        <v>1801</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17101,13 +17257,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G436" t="s">
-        <v>1757</v>
+        <v>1799</v>
       </c>
       <c r="H436" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17127,13 +17283,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1377</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1758</v>
+        <v>1800</v>
       </c>
       <c r="H437" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17159,7 +17315,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17179,13 +17335,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G439" t="s">
-        <v>1759</v>
+        <v>1801</v>
       </c>
       <c r="H439" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17205,13 +17361,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G440" t="s">
-        <v>1760</v>
+        <v>1802</v>
       </c>
       <c r="H440" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17231,13 +17387,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1460</v>
+        <v>1476</v>
       </c>
       <c r="G441" t="s">
-        <v>1761</v>
+        <v>1803</v>
       </c>
       <c r="H441" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17257,13 +17413,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1366</v>
+        <v>1408</v>
       </c>
       <c r="G442" t="s">
-        <v>1762</v>
+        <v>1804</v>
       </c>
       <c r="H442" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17283,13 +17439,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1366</v>
+        <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1763</v>
+        <v>1805</v>
       </c>
       <c r="H443" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17309,13 +17465,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G444" t="s">
-        <v>1764</v>
+        <v>1806</v>
       </c>
       <c r="H444" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17335,13 +17491,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="G445" t="s">
-        <v>1765</v>
+        <v>1807</v>
       </c>
       <c r="H445" t="s">
-        <v>1815</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17361,13 +17517,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1462</v>
+        <v>1353</v>
       </c>
       <c r="G446" t="s">
-        <v>1766</v>
+        <v>1808</v>
       </c>
       <c r="H446" t="s">
-        <v>1789</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17390,10 +17546,10 @@
         <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1767</v>
+        <v>1809</v>
       </c>
       <c r="H447" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17413,13 +17569,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G448" t="s">
-        <v>1768</v>
+        <v>1810</v>
       </c>
       <c r="H448" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17439,13 +17595,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G449" t="s">
-        <v>1769</v>
+        <v>1811</v>
       </c>
       <c r="H449" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17465,13 +17621,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1276</v>
+        <v>1355</v>
       </c>
       <c r="G450" t="s">
-        <v>968</v>
+        <v>1812</v>
       </c>
       <c r="H450" t="s">
-        <v>1784</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17491,13 +17647,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1428</v>
+        <v>1478</v>
       </c>
       <c r="G451" t="s">
-        <v>1770</v>
+        <v>1813</v>
       </c>
       <c r="H451" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17517,13 +17673,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="G452" t="s">
-        <v>1771</v>
+        <v>1814</v>
       </c>
       <c r="H452" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17543,13 +17699,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="G453" t="s">
-        <v>1772</v>
+        <v>1815</v>
       </c>
       <c r="H453" t="s">
-        <v>1785</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17569,13 +17725,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G454" t="s">
-        <v>1773</v>
+        <v>1816</v>
       </c>
       <c r="H454" t="s">
-        <v>1802</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17595,13 +17751,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="G455" t="s">
-        <v>1774</v>
+        <v>1817</v>
       </c>
       <c r="H455" t="s">
-        <v>1807</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17621,13 +17777,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G456" t="s">
-        <v>1681</v>
+        <v>1719</v>
       </c>
       <c r="H456" t="s">
-        <v>1805</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17647,13 +17803,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1370</v>
+        <v>1481</v>
       </c>
       <c r="G457" t="s">
-        <v>1775</v>
+        <v>1818</v>
       </c>
       <c r="H457" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17676,10 +17832,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1776</v>
+        <v>1819</v>
       </c>
       <c r="H458" t="s">
-        <v>1816</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17699,10 +17855,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1777</v>
+        <v>1820</v>
       </c>
       <c r="H459" t="s">
-        <v>1782</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17722,13 +17878,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G460" t="s">
-        <v>1778</v>
+        <v>1821</v>
       </c>
       <c r="H460" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17748,13 +17904,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1435</v>
+        <v>1482</v>
       </c>
       <c r="G461" t="s">
-        <v>1779</v>
+        <v>1822</v>
       </c>
       <c r="H461" t="s">
-        <v>1797</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17774,13 +17930,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1399</v>
+        <v>1483</v>
       </c>
       <c r="G462" t="s">
-        <v>1780</v>
+        <v>1823</v>
       </c>
       <c r="H462" t="s">
-        <v>1783</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17803,10 +17959,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1781</v>
+        <v>1824</v>
       </c>
       <c r="H463" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/dp-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-fasttext-money.xlsx
@@ -4540,7 +4540,7 @@
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4630,7 +4630,7 @@
     <t>pizza|way</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>lunch|reviews</t>
@@ -4708,7 +4708,7 @@
     <t>d'|maitre</t>
   </si>
   <si>
-    <t>|dessert|$8.00!-</t>
+    <t>|dessert|$8.00</t>
   </si>
   <si>
     <t>|drinks</t>
@@ -4858,13 +4858,13 @@
     <t>yellowtail</t>
   </si>
   <si>
-    <t>choices|food|$18!-</t>
+    <t>choices|food|$18</t>
   </si>
   <si>
     <t>price|food|service</t>
   </si>
   <si>
-    <t>price|$3-6!-</t>
+    <t>price|$3-6</t>
   </si>
   <si>
     <t>takeout|tupperware|quality</t>
@@ -4921,7 +4921,7 @@
     <t>|menu|restaurant</t>
   </si>
   <si>
-    <t>|wines|$70!-|$30!-</t>
+    <t>|wines|$70|$30</t>
   </si>
   <si>
     <t>service|joint|price|category</t>
@@ -5044,7 +5044,7 @@
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|chips|side|$7!-</t>
+    <t>sandwiches|chips|side|$7</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
@@ -5062,7 +5062,7 @@
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>lobster|sandwich|price|$24!-</t>
+    <t>lobster|sandwich|price|$24</t>
   </si>
   <si>
     <t>|occassion|sort|candle</t>
@@ -5074,7 +5074,7 @@
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10!-</t>
+    <t>plate|cheese|bargain|delight|$10</t>
   </si>
   <si>
     <t>|list|wine</t>
@@ -5164,7 +5164,7 @@
     <t>|sandwich|cheese|manager</t>
   </si>
   <si>
-    <t>music|isnt|100 dollar!-</t>
+    <t>music|isnt|100 dollar</t>
   </si>
   <si>
     <t>atmoshere|bit</t>
@@ -5176,13 +5176,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*</t>
   </si>
   <si>
     <t>part|atmosphere|ls|bts</t>
   </si>
   <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
   </si>
   <si>
     <t>taste|music|dj|lady</t>
@@ -5311,13 +5311,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
+    <t>sushi|$20</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15!-</t>
+    <t>fish|chips|$15</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5326,7 +5326,7 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60!-</t>
+    <t>meal|$60</t>
   </si>
   <si>
     <t>|place|bit</t>
@@ -5338,16 +5338,16 @@
     <t>|dinner</t>
   </si>
   <si>
-    <t>dinner|feet|$400.00!-</t>
+    <t>dinner|feet|$400.00</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11!-</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>guacamole|plate|$11</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5389,7 +5389,7 @@
     <t>atmosphere|bit|scheme</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
+    <t>service|price|dish|$10</t>
   </si>
   <si>
     <t>martinis</t>
@@ -5398,7 +5398,7 @@
     <t>dj|bunch|birthday|friends</t>
   </si>
   <si>
-    <t>dinner|wine|$500!-</t>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5413,16 +5413,16 @@
     <t>environment|lot|guys|wives|escorts</t>
   </si>
   <si>
-    <t>|service|$500!-</t>
+    <t>|service|$500</t>
   </si>
   <si>
     <t>|diners</t>
   </si>
   <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>dinner|$55!-</t>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>dinner|$55</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
@@ -5437,10 +5437,10 @@
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25!-</t>
-  </si>
-  <si>
-    <t>food|$!-</t>
+    <t>restaurant|feel|price|place|$25</t>
+  </si>
+  <si>
+    <t>food|$</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5449,7 +5449,7 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city</t>
@@ -5458,19 +5458,19 @@
     <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
-    <t>deal|party|$29!-</t>
+    <t>deal|party|$29</t>
   </si>
   <si>
     <t>company|date|point|price|brasserie</t>
   </si>
   <si>
-    <t>service|$500!-</t>
+    <t>service|$500</t>
   </si>
   <si>
     <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
-    <t>bite|salmon|restaurants|salmon|$24!-</t>
+    <t>bite|salmon|restaurants|salmon|$24</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5479,7 +5479,7 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>joint|dog|glance|bark</t>
